--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/WEST_VIRGINIA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/WEST_VIRGINIA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -690,12 +690,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C23">
@@ -708,7 +708,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C24">
@@ -721,7 +721,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C25">
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C28">
@@ -791,7 +791,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C30">
@@ -848,7 +848,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C34">
@@ -861,7 +861,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C35">
@@ -874,7 +874,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C36">
@@ -900,7 +900,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C38">
@@ -983,7 +983,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C44">
@@ -996,7 +996,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C45">
@@ -1009,7 +1009,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C46">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C48">
@@ -1066,7 +1066,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C50">
@@ -1385,7 +1385,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C73">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C82">
@@ -1766,7 +1766,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C100">
@@ -1909,41 +1909,6 @@
       </c>
       <c r="D110">
         <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/WEST_VIRGINIA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/WEST_VIRGINIA_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>San Antonio La Isla</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1160,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1173,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1186,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -1199,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1230,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1243,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1274,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1305,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -1344,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -1357,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -1370,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1396,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Unión Hidalgo</t>
@@ -1409,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1440,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Honey</t>
@@ -1453,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -1466,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1479,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -1492,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1523,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1536,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1567,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -1580,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1593,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1624,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1655,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1686,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1699,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -1712,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -1725,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -1738,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -1751,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -1764,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1777,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -1790,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1803,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1816,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -1829,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1842,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1873,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -1886,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
